--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Adicionadas 4 descrições de casos de uso e actualização dos diagramas anteriores</t>
+  </si>
+  <si>
+    <t>Actualização das aplicações existentes no relatório</t>
+  </si>
+  <si>
+    <t>Actualização das aplicações existentes no relatório e formatação do relatório</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +455,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D7" si="0">C2-B2</f>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="E2" s="2">
@@ -471,11 +477,11 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222654E-3</v>
       </c>
       <c r="E3" s="2">
-        <f>E2+D3</f>
+        <f t="shared" ref="E3:E7" si="1">E2+D3</f>
         <v>3.8194444444444531E-2</v>
       </c>
       <c r="F3" t="s">
@@ -493,11 +499,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E4" s="2">
-        <f>E3+D4</f>
+        <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F4" t="s">
@@ -515,11 +521,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E5" s="2">
-        <f>E4+D5</f>
+        <f t="shared" si="1"/>
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="F5" t="s">
@@ -537,11 +543,11 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" s="2">
-        <f>E5+D6</f>
+        <f t="shared" si="1"/>
         <v>9.7222222222222265E-2</v>
       </c>
       <c r="F6" t="s">
@@ -559,11 +565,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="E7" s="2">
-        <f>E6+D7</f>
+        <f t="shared" si="1"/>
         <v>0.15972222222222227</v>
       </c>
       <c r="F7" t="s">
@@ -571,6 +577,53 @@
       </c>
       <c r="G7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42152</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="2">C8-B8</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>E7+D8</f>
+        <v>0.20138888888888895</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9" si="3">C9-B9</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E8+D9</f>
+        <v>0.24305555555555569</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Data</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Actualização das aplicações existentes no relatório e formatação do relatório</t>
+  </si>
+  <si>
+    <t>Actualização dos diagramas UML</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +627,31 @@
       </c>
       <c r="G9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42153</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10" si="4">C10-B10</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E9+D10</f>
+        <v>0.30555555555555569</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Actualização dos diagramas UML</t>
+  </si>
+  <si>
+    <t>Actualização das actividades existentes e formatação do relatório</t>
+  </si>
+  <si>
+    <t>Revisão aos diagramas e ao design do site. Criação do diagrama de classes.</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +658,56 @@
       </c>
       <c r="G10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42154</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="5">C11-B11</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E10+D11</f>
+        <v>0.33680555555555569</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="6">C12-B12</f>
+        <v>0.125</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E11+D12</f>
+        <v>0.46180555555555569</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Revisão aos diagramas e ao design do site. Criação do diagrama de classes.</t>
+  </si>
+  <si>
+    <t>Actualização do diagrama de classes.</t>
+  </si>
+  <si>
+    <t>Procura de informação sobre a API do google maps</t>
+  </si>
+  <si>
+    <t>Estudo sobre o design e cores do website</t>
   </si>
 </sst>
 </file>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +705,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12" si="6">C12-B12</f>
+        <f t="shared" ref="D12:D13" si="6">C12-B12</f>
         <v>0.125</v>
       </c>
       <c r="E12" s="2">
@@ -708,6 +717,97 @@
       </c>
       <c r="G12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42157</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="7">C13-B13</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E12+D13</f>
+        <v>0.52430555555555569</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="8">C14-B14</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E13+D14</f>
+        <v>0.56597222222222232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="9">C15-B15</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E14+D15</f>
+        <v>0.58680555555555569</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="10">C16-B16</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E15+D16</f>
+        <v>0.62847222222222232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Estudo sobre o design e cores do website</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicialização do desenvolvimento, desenvolvimento e planeamento do design </t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,15 +498,15 @@
         <v>0.4375</v>
       </c>
       <c r="C3" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>3.4722222222222654E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E7" si="1">E2+D3</f>
-        <v>3.8194444444444531E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -522,7 +528,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>5.555555555555558E-2</v>
+        <v>5.9027777777777735E-2</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -544,7 +550,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>7.6388888888888951E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -566,7 +572,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>9.7222222222222265E-2</v>
+        <v>0.10069444444444442</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -588,7 +594,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>0.15972222222222227</v>
+        <v>0.16319444444444442</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -612,8 +618,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="E8" s="2">
-        <f>E7+D8</f>
-        <v>0.20138888888888895</v>
+        <f t="shared" ref="E8:E16" si="3">E7+D8</f>
+        <v>0.2048611111111111</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -630,12 +636,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="3">C9-B9</f>
+        <f t="shared" ref="D9" si="4">C9-B9</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E9" s="2">
-        <f>E8+D9</f>
-        <v>0.24305555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.24652777777777785</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -655,12 +661,12 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10" si="4">C10-B10</f>
+        <f t="shared" ref="D10" si="5">C10-B10</f>
         <v>6.25E-2</v>
       </c>
       <c r="E10" s="2">
-        <f>E9+D10</f>
-        <v>0.30555555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.30902777777777785</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -680,12 +686,12 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11" si="5">C11-B11</f>
+        <f t="shared" ref="D11" si="6">C11-B11</f>
         <v>3.125E-2</v>
       </c>
       <c r="E11" s="2">
-        <f>E10+D11</f>
-        <v>0.33680555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.34027777777777785</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -705,12 +711,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="6">C12-B12</f>
+        <f t="shared" ref="D12" si="7">C12-B12</f>
         <v>0.125</v>
       </c>
       <c r="E12" s="2">
-        <f>E11+D12</f>
-        <v>0.46180555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.46527777777777785</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -730,12 +736,12 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13" si="7">C13-B13</f>
+        <f t="shared" ref="D13" si="8">C13-B13</f>
         <v>6.25E-2</v>
       </c>
       <c r="E13" s="2">
-        <f>E12+D13</f>
-        <v>0.52430555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.5277777777777779</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -752,12 +758,12 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14" si="8">C14-B14</f>
+        <f t="shared" ref="D14" si="9">C14-B14</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E14" s="2">
-        <f>E13+D14</f>
-        <v>0.56597222222222232</v>
+        <f t="shared" si="3"/>
+        <v>0.56944444444444453</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -774,12 +780,12 @@
         <v>0.625</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15" si="9">C15-B15</f>
+        <f t="shared" ref="D15" si="10">C15-B15</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E15" s="2">
-        <f>E14+D15</f>
-        <v>0.58680555555555569</v>
+        <f t="shared" si="3"/>
+        <v>0.5902777777777779</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -796,18 +802,68 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16" si="10">C16-B16</f>
+        <f t="shared" ref="D16" si="11">C16-B16</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E16" s="2">
-        <f>E15+D16</f>
-        <v>0.62847222222222232</v>
+        <f t="shared" si="3"/>
+        <v>0.63194444444444453</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42158</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="12">C17-B17</f>
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17" si="13">E16+D17</f>
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="14">C18-B18</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18" si="15">E17+D18</f>
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">Inicialização do desenvolvimento, desenvolvimento e planeamento do design </t>
+  </si>
+  <si>
+    <t>Desenvolvimento do design responsivo</t>
+  </si>
+  <si>
+    <t>Criação e desenvolvimento do mapaboleia.php</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +869,54 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42160</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="16">C19-B19</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19" si="17">E18+D19</f>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="18">C20-B20</f>
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20" si="19">E19+D20</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Criação e desenvolvimento do mapaboleia.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do mapaboleia.php e criação da base de dados</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +908,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20" si="18">C20-B20</f>
+        <f t="shared" ref="D20:D21" si="18">C20-B20</f>
         <v>0.125</v>
       </c>
       <c r="E20" s="2">
@@ -917,6 +920,31 @@
       </c>
       <c r="G20" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42161</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21" si="20">C21-B21</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21" si="21">E20+D21</f>
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -96,7 +96,13 @@
     <t>Criação e desenvolvimento do mapaboleia.php</t>
   </si>
   <si>
-    <t>Desenvolvimento do mapaboleia.php e criação da base de dados</t>
+    <t>Desenvolvimento do mapaboleia.php</t>
+  </si>
+  <si>
+    <t>Organização do projecto (reunião com o orientador)</t>
+  </si>
+  <si>
+    <t>Revisão do modelo ER</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,8 +520,8 @@
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="1">E2+D3</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E19" si="1">E2+D3</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="F3" t="s">
@@ -535,7 +542,7 @@
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>5.9027777777777735E-2</v>
       </c>
@@ -557,7 +564,7 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>7.9861111111111105E-2</v>
       </c>
@@ -579,7 +586,7 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>0.10069444444444442</v>
       </c>
@@ -601,7 +608,7 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>0.16319444444444442</v>
       </c>
@@ -626,8 +633,8 @@
         <f t="shared" ref="D8" si="2">C8-B8</f>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E16" si="3">E7+D8</f>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
         <v>0.2048611111111111</v>
       </c>
       <c r="F8" t="s">
@@ -645,11 +652,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="4">C9-B9</f>
+        <f t="shared" ref="D9" si="3">C9-B9</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
         <v>0.24652777777777785</v>
       </c>
       <c r="F9" t="s">
@@ -670,11 +677,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10" si="5">C10-B10</f>
+        <f t="shared" ref="D10" si="4">C10-B10</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>0.30902777777777785</v>
       </c>
       <c r="F10" t="s">
@@ -695,11 +702,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11" si="6">C11-B11</f>
+        <f t="shared" ref="D11" si="5">C11-B11</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
         <v>0.34027777777777785</v>
       </c>
       <c r="F11" t="s">
@@ -720,11 +727,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12" si="7">C12-B12</f>
+        <f t="shared" ref="D12" si="6">C12-B12</f>
         <v>0.125</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
         <v>0.46527777777777785</v>
       </c>
       <c r="F12" t="s">
@@ -745,11 +752,11 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13" si="8">C13-B13</f>
+        <f t="shared" ref="D13" si="7">C13-B13</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>0.5277777777777779</v>
       </c>
       <c r="F13" t="s">
@@ -767,11 +774,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14" si="9">C14-B14</f>
+        <f t="shared" ref="D14" si="8">C14-B14</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
         <v>0.56944444444444453</v>
       </c>
       <c r="F14" t="s">
@@ -789,11 +796,11 @@
         <v>0.625</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15" si="10">C15-B15</f>
+        <f t="shared" ref="D15" si="9">C15-B15</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>0.5902777777777779</v>
       </c>
       <c r="F15" t="s">
@@ -811,11 +818,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16" si="11">C16-B16</f>
+        <f t="shared" ref="D16" si="10">C16-B16</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
         <v>0.63194444444444453</v>
       </c>
       <c r="F16" t="s">
@@ -836,11 +843,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17" si="12">C17-B17</f>
+        <f t="shared" ref="D17" si="11">C17-B17</f>
         <v>0.125</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17" si="13">E16+D17</f>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
         <v>0.75694444444444453</v>
       </c>
       <c r="F17" t="s">
@@ -861,11 +868,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18" si="14">C18-B18</f>
+        <f t="shared" ref="D18" si="12">C18-B18</f>
         <v>0.14583333333333326</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18" si="15">E17+D18</f>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
         <v>0.90277777777777779</v>
       </c>
       <c r="F18" t="s">
@@ -886,11 +893,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19" si="16">C19-B19</f>
+        <f t="shared" ref="D19" si="13">C19-B19</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19" si="17">E18+D19</f>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
         <v>0.98611111111111116</v>
       </c>
       <c r="F19" t="s">
@@ -908,11 +915,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="18">C20-B20</f>
+        <f t="shared" ref="D20" si="14">C20-B20</f>
         <v>0.125</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20" si="19">E19+D20</f>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20:E22" si="15">E19+D20</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="F20" t="s">
@@ -933,11 +940,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21" si="20">C21-B21</f>
+        <f t="shared" ref="D21" si="16">C21-B21</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21" si="21">E20+D21</f>
+      <c r="E21" s="3">
+        <f t="shared" si="15"/>
         <v>1.1736111111111112</v>
       </c>
       <c r="F21" t="s">
@@ -947,8 +954,56 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42163</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22" si="17">C22-B22</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="15"/>
+        <v>1.2569444444444444</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="18">C23-B23</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ref="E23" si="19">E22+D23</f>
+        <v>1.2986111111111112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Data</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Revisão do modelo ER</t>
+  </si>
+  <si>
+    <t>Revisão do modelo ER/ Estruturação do relatório</t>
+  </si>
+  <si>
+    <t>Revisão do modelo ER (reunião com o orientador)</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1005,81 @@
       </c>
       <c r="G23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24" si="20">C24-B24</f>
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ref="E24" si="21">E23+D24</f>
+        <v>1.4236111111111112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42166</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="22">C25-B25</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="23">E24+D25</f>
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26" si="24">C26-B26</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ref="E26" si="25">E25+D26</f>
+        <v>1.6111111111111109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Data</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Revisão do modelo ER (reunião com o orientador)</t>
+  </si>
+  <si>
+    <t>Estruturação do relatório (ferramentas e metodologia)/ Criação do pp Apresentação</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1062,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42168</v>
+        <v>42167</v>
       </c>
       <c r="B26" s="2">
         <v>0.58333333333333337</v>
@@ -1080,6 +1083,53 @@
       </c>
       <c r="G26" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27" si="26">C27-B27</f>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ref="E27" si="27">E26+D27</f>
+        <v>1.6736111111111109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28" si="28">C28-B28</f>
+        <v>0.125</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28" si="29">E27+D28</f>
+        <v>1.7986111111111109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Data</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Estruturação do relatório (ferramentas e metodologia)/ Criação do pp Apresentação</t>
+  </si>
+  <si>
+    <t>Revisão do modelo ER/ criação da matriz CRUD</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1133,31 @@
       </c>
       <c r="G28" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29" si="30">C29-B29</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ref="E29" si="31">E28+D29</f>
+        <v>1.8819444444444442</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Data</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Revisão do modelo ER/ criação da matriz CRUD</t>
+  </si>
+  <si>
+    <t>Actualização do pp Apresentação</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1161,31 @@
       </c>
       <c r="G29" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42172</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30" si="32">C30-B30</f>
+        <v>0.125</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ref="E30" si="33">E29+D30</f>
+        <v>2.0069444444444442</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Data</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Actualização do pp Apresentação</t>
+  </si>
+  <si>
+    <t>Corrigido bug do mapboleia.php no chrome</t>
+  </si>
+  <si>
+    <t>Criadas funções de inserção de dados na BD</t>
+  </si>
+  <si>
+    <t>Deenvolvimento do mapaboleia.php</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1183,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30" si="32">C30-B30</f>
+        <f t="shared" ref="D30:D31" si="32">C30-B30</f>
         <v>0.125</v>
       </c>
       <c r="E30" s="3">
@@ -1186,6 +1195,78 @@
       </c>
       <c r="G30" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42173</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="32"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ref="E31" si="34">E30+D31</f>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42174</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32" si="35">C32-B32</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ref="E32" si="36">E31+D32</f>
+        <v>2.1736111111111107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33" si="37">C33-B33</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ref="E33" si="38">E32+D33</f>
+        <v>2.2777777777777772</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>Data</t>
   </si>
@@ -126,7 +126,10 @@
     <t>Criadas funções de inserção de dados na BD</t>
   </si>
   <si>
-    <t>Deenvolvimento do mapaboleia.php</t>
+    <t>Desenvolvimento do mapaboleia.php/Criação do form_mapaboleia.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do form_mapaboleia.php</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -1266,7 +1269,104 @@
         <v>22</v>
       </c>
       <c r="G33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42175</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34" si="39">C34-B34</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ref="E34" si="40">E33+D34</f>
+        <v>2.3402777777777772</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42177</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35" si="41">C35-B35</f>
+        <v>0.125</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35" si="42">E34+D35</f>
+        <v>2.4652777777777772</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42178</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36" si="43">C36-B36</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ref="E36" si="44">E35+D36</f>
+        <v>2.5694444444444438</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37" si="45">C37-B37</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ref="E37" si="46">E36+D37</f>
+        <v>2.7152777777777768</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Data</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Desenvolvimento do form_mapaboleia.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do form_mapaboleia.php\Criação e form_inserirboleia.php</t>
+  </si>
+  <si>
+    <t>Criação do form_login.php/login.php</t>
+  </si>
+  <si>
+    <t>Criação do form_logout.php/Adaptação da aplicação ao login</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1376,103 @@
       </c>
       <c r="G37" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38" si="47">C38-B38</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ref="E38" si="48">E37+D38</f>
+        <v>2.8611111111111098</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42180</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="49">C39-B39</f>
+        <v>0.125</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" ref="E39" si="50">E38+D39</f>
+        <v>2.9861111111111098</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="51">C40-B40</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" ref="E40" si="52">E39+D40</f>
+        <v>3.0694444444444433</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="53">C41-B41</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" ref="E41" si="54">E40+D41</f>
+        <v>3.1527777777777768</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Criação do form_logout.php/Adaptação da aplicação ao login</t>
+  </si>
+  <si>
+    <t>Criação do form_inserirpassageiro.php</t>
+  </si>
+  <si>
+    <t>Criação do form_eliminarpassageiro.php</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42182</v>
+        <v>42181</v>
       </c>
       <c r="B40" s="2">
         <v>0.41666666666666669</v>
@@ -1473,6 +1479,53 @@
       </c>
       <c r="G41" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="55">C42-B42</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ref="E42" si="56">E41+D42</f>
+        <v>3.1944444444444433</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43" si="57">C43-B43</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" ref="E43" si="58">E42+D43</f>
+        <v>3.2569444444444433</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Criação do form_eliminarpassageiro.php</t>
+  </si>
+  <si>
+    <t>Alteração da boleia</t>
+  </si>
+  <si>
+    <t>Alteração/eliminação da boleia</t>
+  </si>
+  <si>
+    <t>Criação do conf.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da repetição das boleias</t>
   </si>
 </sst>
 </file>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,6 +1538,128 @@
       </c>
       <c r="G43" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42184</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44" si="59">C44-B44</f>
+        <v>0.125</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ref="E44" si="60">E43+D44</f>
+        <v>3.3819444444444433</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45" si="61">C45-B45</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" ref="E45" si="62">E44+D45</f>
+        <v>3.4861111111111098</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46" si="63">C46-B46</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" ref="E46" si="64">E45+D46</f>
+        <v>3.5902777777777768</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="65">C47-B47</f>
+        <v>0.125</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ref="E47" si="66">E46+D47</f>
+        <v>3.7152777777777768</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48" si="67">C48-B48</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ref="E48" si="68">E47+D48</f>
+        <v>3.9236111111111098</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Desenvolvimento da repetição das boleias</t>
+  </si>
+  <si>
+    <t>Organização do projecto e do relatório(reunião com o orientador)</t>
+  </si>
+  <si>
+    <t>Revisão do diagrama de contexto</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1666,53 @@
       </c>
       <c r="G48" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42188</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" ref="D49" si="69">C49-B49</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" ref="E49" si="70">E48+D49</f>
+        <v>4.0277777777777768</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50" si="71">C50-B50</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ref="E50" si="72">E49+D50</f>
+        <v>4.1111111111111098</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Revisão do diagrama de contexto</t>
+  </si>
+  <si>
+    <t>Formatação e estrutura do relatório</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1716,56 @@
       </c>
       <c r="G50" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51" si="73">C51-B51</f>
+        <v>0.125</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" ref="E51" si="74">E50+D51</f>
+        <v>4.2361111111111098</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>42192</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52" si="75">C52-B52</f>
+        <v>0.125</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ref="E52" si="76">E51+D52</f>
+        <v>4.3611111111111098</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Formatação e estrutura do relatório</t>
+  </si>
+  <si>
+    <t>Formatação e estrutura do relatório( Reunião com o orientador)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do mapaboleia.php. Navegação e interface da vista semanal do mapa</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,27 +1751,147 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42192</v>
+        <v>42193</v>
       </c>
       <c r="B52" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C52" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ref="D52" si="75">C52-B52</f>
-        <v>0.125</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" ref="E52" si="76">E51+D52</f>
-        <v>4.3611111111111098</v>
+        <v>4.3194444444444429</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
       </c>
       <c r="G52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53" si="77">C53-B53</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ref="E53" si="78">E52+D53</f>
+        <v>4.3819444444444429</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>42194</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54" si="79">C54-B54</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ref="E54" si="80">E53+D54</f>
+        <v>4.5486111111111098</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" ref="D55" si="81">C55-B55</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55" si="82">E54+D55</f>
+        <v>4.6111111111111098</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56" si="83">C56-B56</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ref="E56" si="84">E55+D56</f>
+        <v>4.7152777777777768</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42196</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" ref="D57" si="85">C57-B57</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ref="E57" si="86">E56+D57</f>
+        <v>4.7986111111111098</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Desenvolvimento do mapaboleia.php. Navegação e interface da vista semanal do mapa</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da eliminação das boleias</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,6 +1895,101 @@
       </c>
       <c r="G57" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>42198</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58" si="87">C58-B58</f>
+        <v>0.125</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" ref="E58" si="88">E57+D58</f>
+        <v>4.9236111111111098</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" ref="D59" si="89">C59-B59</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ref="E59" si="90">E58+D59</f>
+        <v>4.9861111111111098</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>42199</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" ref="D60" si="91">C60-B60</f>
+        <v>0.125</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ref="E60" si="92">E59+D60</f>
+        <v>5.1111111111111098</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61" si="93">C61-B61</f>
+        <v>0.125</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ref="E61" si="94">E60+D61</f>
+        <v>5.2361111111111098</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>Data</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Desenvolvimento da eliminação das boleias</t>
+  </si>
+  <si>
+    <t>Apresentação.ptxx / Relatório</t>
+  </si>
+  <si>
+    <t>Apresentação.ptxx / Inserir boleia por data</t>
+  </si>
+  <si>
+    <t>Apresentação.ptxx /Styles.css/InserirPassageiro.php</t>
+  </si>
+  <si>
+    <t>Colocados contactos dos membros no mapa de boleias</t>
+  </si>
+  <si>
+    <t>Estruturação da apresentação</t>
+  </si>
+  <si>
+    <t>Reunião com o orientador/ Pesquisa de livros de design</t>
+  </si>
+  <si>
+    <t>Recolha de informação sobre o design do site / Melhorado o contraste das cores no mapa</t>
+  </si>
+  <si>
+    <t>Bugs visuais corrigidos</t>
   </si>
 </sst>
 </file>
@@ -516,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,6 +2014,194 @@
       </c>
       <c r="G61" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42200</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" ref="D62" si="95">C62-B62</f>
+        <v>0.125</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ref="E62" si="96">E61+D62</f>
+        <v>5.3611111111111098</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" ref="D63" si="97">C63-B63</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" ref="E63" si="98">E62+D63</f>
+        <v>5.4236111111111098</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42201</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" ref="D64" si="99">C64-B64</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" ref="E64" si="100">E63+D64</f>
+        <v>5.5694444444444429</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65" si="101">C65-B65</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" ref="E65" si="102">E64+D65</f>
+        <v>5.6736111111111098</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66" si="103">C66-B66</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" ref="E66" si="104">E65+D66</f>
+        <v>5.7569444444444429</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42205</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67" si="105">C67-B67</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67" si="106">E66+D67</f>
+        <v>5.8611111111111098</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68" si="107">C68-B68</f>
+        <v>0.125</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ref="E68" si="108">E67+D68</f>
+        <v>5.9861111111111098</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69" si="109">C69-B69</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" ref="E69" si="110">E68+D69</f>
+        <v>6.0277777777777768</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Bugs visuais corrigidos</t>
+  </si>
+  <si>
+    <t>Criação da página administrador.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de administrador.php</t>
+  </si>
+  <si>
+    <t>Criação de alterações.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de alteracoes.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de alteracoes.php/criação de estatisticas.php</t>
   </si>
 </sst>
 </file>
@@ -540,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="D59" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,11 +2205,11 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" ref="D69" si="109">C69-B69</f>
+        <f t="shared" ref="D69:D71" si="109">C69-B69</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" ref="E69" si="110">E68+D69</f>
+        <f t="shared" ref="E69:E73" si="110">E68+D69</f>
         <v>6.0277777777777768</v>
       </c>
       <c r="F69" t="s">
@@ -2202,6 +2217,147 @@
       </c>
       <c r="G69" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="109"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="110"/>
+        <v>6.1527777777777768</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="109"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="110"/>
+        <v>6.2986111111111098</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42256</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" ref="D72:D73" si="111">C72-B72</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="110"/>
+        <v>6.4236111111111098</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="111"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="110"/>
+        <v>6.5694444444444429</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" ref="D74:D75" si="112">C74-B74</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" ref="E74:E75" si="113">E73+D74</f>
+        <v>6.6736111111111098</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="112"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="113"/>
+        <v>6.8194444444444429</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Desenvolvimento de alteracoes.php/criação de estatisticas.php</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de estatisticas.php/base de dados</t>
+  </si>
+  <si>
+    <t>Correção de bugs/Export para servidor web</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do relatório</t>
   </si>
 </sst>
 </file>
@@ -555,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D59" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,6 +2367,194 @@
       </c>
       <c r="G75" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" ref="D76:D77" si="114">C76-B76</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" ref="E76:E77" si="115">E75+D76</f>
+        <v>6.9236111111111098</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="114"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="115"/>
+        <v>7.0069444444444429</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" ref="D78:D79" si="116">C78-B78</f>
+        <v>0.18750000000000006</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ref="E78:E79" si="117">E77+D78</f>
+        <v>7.1944444444444429</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="116"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="117"/>
+        <v>7.3402777777777759</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42263</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" ref="D80:D81" si="118">C80-B80</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" ref="E80:E81" si="119">E79+D80</f>
+        <v>7.4652777777777759</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="118"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="119"/>
+        <v>7.6111111111111089</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42264</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" ref="D82:D83" si="120">C82-B82</f>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" ref="E82:E83" si="121">E81+D82</f>
+        <v>7.756944444444442</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="120"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="121"/>
+        <v>7.902777777777775</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Desenvolvimento do relatório</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do relatório/reunião com o orientador</t>
+  </si>
+  <si>
+    <t>Revisão dos diagramas UML</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,6 +2561,178 @@
       </c>
       <c r="G83" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" ref="D84" si="122">C84-B84</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" ref="E84" si="123">E83+D84</f>
+        <v>8.027777777777775</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" ref="D85" si="124">C85-B85</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" ref="E85" si="125">E84+D85</f>
+        <v>8.152777777777775</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" ref="D86" si="126">C86-B86</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" ref="E86" si="127">E85+D86</f>
+        <v>8.2986111111111089</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" ref="D87" si="128">C87-B87</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" ref="E87" si="129">E86+D87</f>
+        <v>8.4236111111111089</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" ref="D88" si="130">C88-B88</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E88" s="3">
+        <f>E87+D88</f>
+        <v>8.590277777777775</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" ref="D89:D90" si="131">C89-B89</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E89" s="3">
+        <f>E88+D89</f>
+        <v>8.7569444444444411</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="131"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E90" s="3">
+        <f>E89+D90</f>
+        <v>8.9236111111111072</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Revisão dos diagramas UML</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do relatório (reunião com o orientador)</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,6 +2736,81 @@
       </c>
       <c r="G90" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" ref="D91" si="132">C91-B91</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E91" s="3">
+        <f>E90+D91</f>
+        <v>9.090277777777775</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" ref="D92:D93" si="133">C92-B92</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" ref="E92:E93" si="134">E91+D92</f>
+        <v>9.2569444444444429</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="133"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="134"/>
+        <v>9.4236111111111107</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Registo actividades.xlsx
+++ b/Registo actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>Data</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Desenvolvimento do relatório (reunião com o orientador)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento do relatório </t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,6 +2814,206 @@
       </c>
       <c r="G93" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" ref="D94" si="135">C94-B94</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" ref="E94" si="136">E93+D94</f>
+        <v>9.5902777777777786</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" ref="D95" si="137">C95-B95</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" ref="E95" si="138">E94+D95</f>
+        <v>9.7569444444444464</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" ref="D96" si="139">C96-B96</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" ref="E96" si="140">E95+D96</f>
+        <v>9.9236111111111143</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" ref="D97:D98" si="141">C97-B97</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" ref="E97:E98" si="142">E96+D97</f>
+        <v>10.090277777777782</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="141"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="142"/>
+        <v>10.25694444444445</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" ref="D99:D100" si="143">C99-B99</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" ref="E99:E100" si="144">E98+D99</f>
+        <v>10.423611111111118</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="143"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="144"/>
+        <v>10.590277777777786</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>42287</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" ref="D101" si="145">C101-B101</f>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" ref="E101" si="146">E100+D101</f>
+        <v>10.756944444444454</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
